--- a/examples/vpcwebapp/xlsx/compute.xlsx
+++ b/examples/vpcwebapp/xlsx/compute.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcmodules/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677D285-6BEC-2D41-872B-E41B747CBA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955AB7EC-CD63-A44A-81DD-637706B74D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="2160" windowWidth="19160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6260" yWindow="460" windowWidth="19160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instances" sheetId="27" r:id="rId1"/>
     <sheet name="volumes" sheetId="49" r:id="rId2"/>
     <sheet name="images" sheetId="52" r:id="rId3"/>
-    <sheet name="sshkeys" sheetId="62" r:id="rId4"/>
-    <sheet name="floatingips" sheetId="54" r:id="rId5"/>
-    <sheet name="instancegroups" sheetId="58" r:id="rId6"/>
-    <sheet name="instancemanagers" sheetId="59" r:id="rId7"/>
-    <sheet name="instancepolicies" sheetId="60" r:id="rId8"/>
-    <sheet name="instancetemplates" sheetId="61" r:id="rId9"/>
+    <sheet name="floatingips" sheetId="54" r:id="rId4"/>
+    <sheet name="instancegroups" sheetId="58" r:id="rId5"/>
+    <sheet name="instancemanagers" sheetId="59" r:id="rId6"/>
+    <sheet name="instancepolicies" sheetId="60" r:id="rId7"/>
+    <sheet name="instancetemplates" sheetId="61" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
   <si>
     <t>*zone</t>
   </si>
@@ -167,27 +166,6 @@
     <t>format("%s-%s-fip", var.bastionserver-name, var.zone2)</t>
   </si>
   <si>
-    <t>ibm_is_vpc.vpc1.id</t>
-  </si>
-  <si>
-    <t>ibm_is_subnet.webapptier-subnet-zone1.id</t>
-  </si>
-  <si>
-    <t>ibm_is_subnet.dbtier-subnet-zone1.id</t>
-  </si>
-  <si>
-    <t>ibm_is_subnet.bastion-subnet-zone1.id</t>
-  </si>
-  <si>
-    <t>ibm_is_subnet.webapptier-subnet-zone2.id</t>
-  </si>
-  <si>
-    <t>ibm_is_subnet.dbtier-subnet-zone2.id</t>
-  </si>
-  <si>
-    <t>ibm_is_subnet.bastion-subnet-zone2.id</t>
-  </si>
-  <si>
     <t>ibm_is_instance.bastionserver-zone1.primary_network_interface.0.id</t>
   </si>
   <si>
@@ -251,15 +229,6 @@
     <t>"${var.bastionserver-name}-${var.zone2}"</t>
   </si>
   <si>
-    <t>[ibm_is_security_group.webapptier-securitygroup.id, ibm_is_security_group.maintenance-securitygroup.id]</t>
-  </si>
-  <si>
-    <t>[ibm_is_security_group.dbtier-securitygroup.id, ibm_is_security_group.maintenance-securitygroup.id]</t>
-  </si>
-  <si>
-    <t>[ibm_is_security_group.bastion-securitygroup.id]</t>
-  </si>
-  <si>
     <t>"webappserver-zone1-boot"</t>
   </si>
   <si>
@@ -302,12 +271,6 @@
     <t>element(ibm_is_instance.webappserver-zone2.*.primary_network_interface.0.id, count.index)</t>
   </si>
   <si>
-    <t>[ibm_is_ssh_key.sshkey.id]</t>
-  </si>
-  <si>
-    <t>ibm_resource_group.group.id</t>
-  </si>
-  <si>
     <t>network_interfaces.name</t>
   </si>
   <si>
@@ -434,19 +397,52 @@
     <t>volume_attachments.delete_volume_on_instance_delete</t>
   </si>
   <si>
-    <t>*public_key</t>
-  </si>
-  <si>
-    <t>sshkey</t>
-  </si>
-  <si>
-    <t>"wordpress-demo-key"</t>
-  </si>
-  <si>
-    <t>file(var.ssh-public-key)</t>
-  </si>
-  <si>
-    <t>Define ssh key</t>
+    <t>module</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>bastion</t>
+  </si>
+  <si>
+    <t>var.vpc-id</t>
+  </si>
+  <si>
+    <t>[var.sshkey-id]</t>
+  </si>
+  <si>
+    <t>var.webapptier-subnet-zone1-id</t>
+  </si>
+  <si>
+    <t>var.dbtier-subnet-zone1-id</t>
+  </si>
+  <si>
+    <t>var.bastion-subnet-zone1-id</t>
+  </si>
+  <si>
+    <t>var.bastion-subnet-zone2-id</t>
+  </si>
+  <si>
+    <t>var.webapptier-subnet-zone2-id</t>
+  </si>
+  <si>
+    <t>var.dbtier-subnet-zone2-id</t>
+  </si>
+  <si>
+    <t>[var.webapptier-securitygroup-id, var.maintenance-securitygroup-id]</t>
+  </si>
+  <si>
+    <t>[var.dbtier-securitygroup-id, var.maintenance-securitygroup-id]</t>
+  </si>
+  <si>
+    <t>[var.bastion-securitygroup-id]</t>
+  </si>
+  <si>
+    <t>var.group-id</t>
   </si>
 </sst>
 </file>
@@ -532,40 +528,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="142">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="140">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -706,6 +669,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -751,6 +717,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -805,6 +774,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -847,6 +819,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -883,6 +858,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -937,12 +915,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1059,205 +1043,196 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:X11" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
-  <autoFilter ref="A1:X11" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
-  <tableColumns count="24">
-    <tableColumn id="11" xr3:uid="{C312D547-C899-B54A-8C78-2627C59BE698}" name="*file" dataDxfId="139"/>
-    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*resource" dataDxfId="138"/>
-    <tableColumn id="8" xr3:uid="{B05647B5-4075-584D-BFA2-184B7558EF5E}" name="*name" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{AECA3B2B-972B-2947-B76F-3FE48277F64A}" name="*vpc" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="*image" dataDxfId="133"/>
-    <tableColumn id="14" xr3:uid="{1A5FD37C-8F61-7B49-9DE5-C024F0CC91E5}" name="boot_volume.name" dataDxfId="132"/>
-    <tableColumn id="22" xr3:uid="{EE5AAA60-CB22-C74A-9CC2-D51DD5B0DD65}" name="boot_volume.encryption" dataDxfId="131"/>
-    <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="130"/>
-    <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_network_interface.name" dataDxfId="129"/>
-    <tableColumn id="21" xr3:uid="{DDD37876-0117-6140-842E-18A729C330C8}" name="*primary_network_interface.subnet" dataDxfId="128"/>
-    <tableColumn id="20" xr3:uid="{EC1E0AEE-B8DD-2145-B373-A9AEFFCF12E6}" name="primary_network_interface.security_groups" dataDxfId="127"/>
-    <tableColumn id="10" xr3:uid="{438F95E2-E2D5-1E49-9852-4B915078693E}" name="network_interfaces.name" dataDxfId="126"/>
-    <tableColumn id="16" xr3:uid="{21E0F340-105F-0540-B4FF-9EF83CAC0917}" name="network_interfaces.subnet" dataDxfId="125"/>
-    <tableColumn id="23" xr3:uid="{F3FE0F95-9B4D-5C46-AA1B-68E7C904AEEF}" name="network_interfaces.security_groups" dataDxfId="124"/>
-    <tableColumn id="19" xr3:uid="{6293540A-4A05-0E4A-99ED-C75D3F46ECCF}" name="volumes" dataDxfId="123"/>
-    <tableColumn id="18" xr3:uid="{8C2D6431-BD15-6849-BBE1-C0EF1B26E51A}" name="user_data" dataDxfId="122"/>
-    <tableColumn id="17" xr3:uid="{8C7E9F80-830B-174D-9411-54916978023E}" name="resource_group" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{E502A166-3100-FF4A-9402-397D4F4E4E1A}" name="tags" dataDxfId="120"/>
-    <tableColumn id="12" xr3:uid="{E2511928-0801-3546-B6BA-F9C8EF98BBC6}" name="timeout_create" dataDxfId="119"/>
-    <tableColumn id="15" xr3:uid="{35D34496-719B-A04D-99AA-CD60179A1A6E}" name="timeout_delete" dataDxfId="118"/>
-    <tableColumn id="13" xr3:uid="{F33A3F16-B62A-EC4B-BC5D-BAA56655B743}" name="count" dataDxfId="117"/>
-    <tableColumn id="24" xr3:uid="{E4D23545-B894-EB46-8FB9-A2EF7A1F55DC}" name="comments" dataDxfId="116"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:Y11" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
+  <autoFilter ref="A1:Y11" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
+  <tableColumns count="25">
+    <tableColumn id="11" xr3:uid="{C312D547-C899-B54A-8C78-2627C59BE698}" name="*file" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*resource" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{B05647B5-4075-584D-BFA2-184B7558EF5E}" name="*name" dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{AECA3B2B-972B-2947-B76F-3FE48277F64A}" name="*vpc" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="*image" dataDxfId="131"/>
+    <tableColumn id="14" xr3:uid="{1A5FD37C-8F61-7B49-9DE5-C024F0CC91E5}" name="boot_volume.name" dataDxfId="130"/>
+    <tableColumn id="22" xr3:uid="{EE5AAA60-CB22-C74A-9CC2-D51DD5B0DD65}" name="boot_volume.encryption" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="128"/>
+    <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_network_interface.name" dataDxfId="127"/>
+    <tableColumn id="21" xr3:uid="{DDD37876-0117-6140-842E-18A729C330C8}" name="*primary_network_interface.subnet" dataDxfId="126"/>
+    <tableColumn id="20" xr3:uid="{EC1E0AEE-B8DD-2145-B373-A9AEFFCF12E6}" name="primary_network_interface.security_groups" dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{438F95E2-E2D5-1E49-9852-4B915078693E}" name="network_interfaces.name" dataDxfId="124"/>
+    <tableColumn id="16" xr3:uid="{21E0F340-105F-0540-B4FF-9EF83CAC0917}" name="network_interfaces.subnet" dataDxfId="123"/>
+    <tableColumn id="23" xr3:uid="{F3FE0F95-9B4D-5C46-AA1B-68E7C904AEEF}" name="network_interfaces.security_groups" dataDxfId="122"/>
+    <tableColumn id="19" xr3:uid="{6293540A-4A05-0E4A-99ED-C75D3F46ECCF}" name="volumes" dataDxfId="121"/>
+    <tableColumn id="18" xr3:uid="{8C2D6431-BD15-6849-BBE1-C0EF1B26E51A}" name="user_data" dataDxfId="120"/>
+    <tableColumn id="17" xr3:uid="{8C7E9F80-830B-174D-9411-54916978023E}" name="resource_group" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{E502A166-3100-FF4A-9402-397D4F4E4E1A}" name="tags" dataDxfId="118"/>
+    <tableColumn id="12" xr3:uid="{E2511928-0801-3546-B6BA-F9C8EF98BBC6}" name="timeout_create" dataDxfId="117"/>
+    <tableColumn id="15" xr3:uid="{35D34496-719B-A04D-99AA-CD60179A1A6E}" name="timeout_delete" dataDxfId="116"/>
+    <tableColumn id="13" xr3:uid="{F33A3F16-B62A-EC4B-BC5D-BAA56655B743}" name="count" dataDxfId="115"/>
+    <tableColumn id="25" xr3:uid="{FBAC5B65-08DB-824A-A712-6943A6780691}" name="module" dataDxfId="114"/>
+    <tableColumn id="24" xr3:uid="{E4D23545-B894-EB46-8FB9-A2EF7A1F55DC}" name="comments" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C451A855-5250-674B-8039-E23EC3348E96}" name="Table11" displayName="Table11" ref="A1:N5" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
-  <autoFilter ref="A1:N5" xr:uid="{8CD156A6-A66F-1245-BCD2-9FAE26A0A77C}"/>
-  <tableColumns count="14">
-    <tableColumn id="15" xr3:uid="{9E45B3FE-088C-1043-8CD4-79D757E3B113}" name="*file" dataDxfId="113"/>
-    <tableColumn id="14" xr3:uid="{ADA7B05E-2042-0842-B4FA-B8F9422C32EC}" name="*resource" dataDxfId="112"/>
-    <tableColumn id="1" xr3:uid="{CDC18A34-D228-8E41-90CD-62AD9ACAF229}" name="*name" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{480E110A-7DA0-1A46-B19A-DAB8291BA972}" name="*profile" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{1B453B9B-A3A5-5948-96F3-62C87F788C3A}" name="*zone" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{6CC60290-7B72-D343-A43F-F0F762500CF4}" name="iops" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{45C880C0-FF4F-2F4A-919A-124DB93E5010}" name="capacity" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{787D8375-0B24-5F42-A273-3093BD8B60EC}" name="encryption_key" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{392944E6-6831-6F41-86DE-438B3577B0C6}" name="resource_group" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{2D73C361-1CE6-FF4D-BC45-651F77AC5BE1}" name="resource_controller_url" dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{6B77DCCF-F340-0A42-B34C-B1E50E6E3A9E}" name="tags" dataDxfId="103"/>
-    <tableColumn id="9" xr3:uid="{DC38DEC2-7381-DD45-A09D-F3050D08CA1E}" name="timeout.create" dataDxfId="102"/>
-    <tableColumn id="10" xr3:uid="{63225B45-4949-7A45-9F18-531EB8888D63}" name="timeout.delete" dataDxfId="101"/>
-    <tableColumn id="11" xr3:uid="{9D59BAAA-3EFD-6942-B905-A5F0EA231122}" name="comments" dataDxfId="100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C451A855-5250-674B-8039-E23EC3348E96}" name="Table11" displayName="Table11" ref="A1:O5" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+  <autoFilter ref="A1:O5" xr:uid="{8CD156A6-A66F-1245-BCD2-9FAE26A0A77C}"/>
+  <tableColumns count="15">
+    <tableColumn id="15" xr3:uid="{9E45B3FE-088C-1043-8CD4-79D757E3B113}" name="*file" dataDxfId="110"/>
+    <tableColumn id="14" xr3:uid="{ADA7B05E-2042-0842-B4FA-B8F9422C32EC}" name="*resource" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{CDC18A34-D228-8E41-90CD-62AD9ACAF229}" name="*name" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{480E110A-7DA0-1A46-B19A-DAB8291BA972}" name="*profile" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{1B453B9B-A3A5-5948-96F3-62C87F788C3A}" name="*zone" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{6CC60290-7B72-D343-A43F-F0F762500CF4}" name="iops" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{45C880C0-FF4F-2F4A-919A-124DB93E5010}" name="capacity" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{787D8375-0B24-5F42-A273-3093BD8B60EC}" name="encryption_key" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{392944E6-6831-6F41-86DE-438B3577B0C6}" name="resource_group" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{2D73C361-1CE6-FF4D-BC45-651F77AC5BE1}" name="resource_controller_url" dataDxfId="101"/>
+    <tableColumn id="13" xr3:uid="{6B77DCCF-F340-0A42-B34C-B1E50E6E3A9E}" name="tags" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{DC38DEC2-7381-DD45-A09D-F3050D08CA1E}" name="timeout.create" dataDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{63225B45-4949-7A45-9F18-531EB8888D63}" name="timeout.delete" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{71CD29A4-3F29-DC45-A23C-C79EE2BC5586}" name="module" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{9D59BAAA-3EFD-6942-B905-A5F0EA231122}" name="comments" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CC6AE3F-9734-ED45-8903-103E4A3651C5}" name="Table323" displayName="Table323" ref="A1:H5" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
-  <autoFilter ref="A1:H5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{C01ADD2A-74FB-E74D-B2D9-4A4D203B3E90}" name="*file" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{C8FF2734-BE1B-0842-8813-8FC327A9774A}" name="*resource" dataDxfId="96"/>
-    <tableColumn id="1" xr3:uid="{9D2269D2-DAC7-7A44-AA65-217A6B5A9326}" name="*name" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{AA9DBEBB-EC6B-E848-9DA7-CEA5574D32E3}" name="*href" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{4531D242-4648-604D-A4F0-6C45B93511A5}" name="*operating_system" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{820303A7-0B6A-BA48-B2C6-0BCED3884DAB}" name="resource_group" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{6B88A27A-C37D-D440-A63A-59083B5F8D69}" name="tags" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{985DA3EA-C986-E04C-808D-664748575A40}" name="comments" dataDxfId="90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CC6AE3F-9734-ED45-8903-103E4A3651C5}" name="Table323" displayName="Table323" ref="A1:I5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+  <autoFilter ref="A1:I5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="9">
+    <tableColumn id="8" xr3:uid="{C01ADD2A-74FB-E74D-B2D9-4A4D203B3E90}" name="*file" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{C8FF2734-BE1B-0842-8813-8FC327A9774A}" name="*resource" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{9D2269D2-DAC7-7A44-AA65-217A6B5A9326}" name="*name" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{AA9DBEBB-EC6B-E848-9DA7-CEA5574D32E3}" name="*href" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{4531D242-4648-604D-A4F0-6C45B93511A5}" name="*operating_system" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{820303A7-0B6A-BA48-B2C6-0BCED3884DAB}" name="resource_group" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{6B88A27A-C37D-D440-A63A-59083B5F8D69}" name="tags" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{B54B6230-6026-2943-B56F-1896885E9757}" name="module" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{985DA3EA-C986-E04C-808D-664748575A40}" name="comments" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{53DA7D7F-3BA5-E84A-B511-196AB7DC570D}" name="Table32" displayName="Table32" ref="A1:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G4" xr:uid="{E53C9C86-FACA-2C40-85AF-B9BA3559B380}"/>
-  <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{92D9B216-CD0E-D84B-B586-9B4599029F9B}" name="*file" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{80BB95D4-C2C1-D144-B157-AAD459B6F756}" name="*resource" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{7313B798-B3DF-9B44-B243-0DAAE15CE71F}" name="*name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{6E4DAE4C-88FE-774F-A92D-796408C268CE}" name="*public_key" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9185DDA1-7A32-5C47-ACC1-8F069E6531DE}" name="resource_group" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{CFF96B90-14F7-C742-B8D8-F6C6A8F3B191}" name="tags" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{AC97D9A9-BD5C-3A41-A017-2000435B689B}" name="comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6552C07F-EB8B-624C-B923-480C01A6D118}" name="Table32310" displayName="Table32310" ref="A1:K8" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+  <autoFilter ref="A1:K8" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="11">
+    <tableColumn id="9" xr3:uid="{F2E90068-5C88-AB45-95BB-D7ED929152A5}" name="*file" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{4A0384A9-C294-4546-AAA8-D2CD531C4DD5}" name="*resource" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{92E92614-F08C-C24C-BC25-EFF06E49A7B0}" name="*name" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{A4B81C57-BCB8-1145-A862-A8022AC95A72}" name="target" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{2FAC087F-4C6B-A54B-AC75-F25799387B85}" name="zone" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{E0D1E75B-B4E8-D34A-A3B6-40995A6B8667}" name="resource_group" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{EF2FB7C8-85F5-D14F-B25F-863F24D248CF}" name="timeout.create" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{CB52DB2E-8120-844C-878A-453EB7AF6172}" name="timeout.delete" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{CFBD67C6-4C5E-D143-9FC9-4B9B0A3F0F65}" name="count" dataDxfId="74"/>
+    <tableColumn id="11" xr3:uid="{298029AD-8325-1F4A-989F-F22943ED7F51}" name="module" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{0BA18536-D878-914B-BAAD-43ECB39D0955}" name="comments" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6552C07F-EB8B-624C-B923-480C01A6D118}" name="Table32310" displayName="Table32310" ref="A1:J8" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="A1:J8" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{F2E90068-5C88-AB45-95BB-D7ED929152A5}" name="*file" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{4A0384A9-C294-4546-AAA8-D2CD531C4DD5}" name="*resource" dataDxfId="86"/>
-    <tableColumn id="1" xr3:uid="{92E92614-F08C-C24C-BC25-EFF06E49A7B0}" name="*name" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{A4B81C57-BCB8-1145-A862-A8022AC95A72}" name="target" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{2FAC087F-4C6B-A54B-AC75-F25799387B85}" name="zone" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{E0D1E75B-B4E8-D34A-A3B6-40995A6B8667}" name="resource_group" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{EF2FB7C8-85F5-D14F-B25F-863F24D248CF}" name="timeout.create" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{CB52DB2E-8120-844C-878A-453EB7AF6172}" name="timeout.delete" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{CFBD67C6-4C5E-D143-9FC9-4B9B0A3F0F65}" name="count" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{0BA18536-D878-914B-BAAD-43ECB39D0955}" name="comments" dataDxfId="78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99740F97-90BB-C54F-8BC8-7DAD5CD8AB08}" name="Table32362" displayName="Table32362" ref="A1:O5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:O5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="15">
+    <tableColumn id="7" xr3:uid="{F87DE0C2-FBA7-BA4D-BED9-97A21E44F7C0}" name="*file" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{CFA930D7-463D-6B44-9154-47D8DC4E5D92}" name="*resource" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{B5994A69-9F3F-EB42-BA15-F1DDC88D9F4E}" name="*name" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{998F1DDE-6C5B-754F-8332-F4E65F672658}" name="*instance_template" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{F0AA838D-65EE-334F-BA27-FA28EBBB86F7}" name="*instance_count" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{494E6B28-2F1A-9043-B711-E5E5813EA62D}" name="*subnets" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{60247C4C-B642-0145-BA6B-CEDEADED113B}" name="application_port" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{087360A7-B4C1-5346-891B-711E6ADA9770}" name="load_balancer" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{576DD7E8-9736-ED4D-9F93-BA3B8D5E5C6B}" name="load_balancer_pool" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{49540DA6-618B-7145-BA05-EF497823680E}" name="resource_group" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{6D834464-5754-604C-9C9D-FD807AE731C3}" name="timeout.create" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{909909F8-6881-C843-BC63-649D539A2E9A}" name="timeout.update" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{94A2E646-A69F-AD4B-9FAE-311A45CA539C}" name="timeout.delete" dataDxfId="57"/>
+    <tableColumn id="15" xr3:uid="{7DDC6862-3DF2-7748-8847-D4C5E827A133}" name="module" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{5287BCF5-E332-C245-B07F-ABA8F92E796A}" name="comments" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99740F97-90BB-C54F-8BC8-7DAD5CD8AB08}" name="Table32362" displayName="Table32362" ref="A1:N5" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
-  <autoFilter ref="A1:N5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="14">
-    <tableColumn id="7" xr3:uid="{F87DE0C2-FBA7-BA4D-BED9-97A21E44F7C0}" name="*file" dataDxfId="75"/>
-    <tableColumn id="1" xr3:uid="{CFA930D7-463D-6B44-9154-47D8DC4E5D92}" name="*resource" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{B5994A69-9F3F-EB42-BA15-F1DDC88D9F4E}" name="*name" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{998F1DDE-6C5B-754F-8332-F4E65F672658}" name="*instance_template" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{F0AA838D-65EE-334F-BA27-FA28EBBB86F7}" name="*instance_count" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{494E6B28-2F1A-9043-B711-E5E5813EA62D}" name="*subnets" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{60247C4C-B642-0145-BA6B-CEDEADED113B}" name="application_port" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{087360A7-B4C1-5346-891B-711E6ADA9770}" name="load_balancer" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{576DD7E8-9736-ED4D-9F93-BA3B8D5E5C6B}" name="load_balancer_pool" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{49540DA6-618B-7145-BA05-EF497823680E}" name="resource_group" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{6D834464-5754-604C-9C9D-FD807AE731C3}" name="timeout.create" dataDxfId="65"/>
-    <tableColumn id="13" xr3:uid="{909909F8-6881-C843-BC63-649D539A2E9A}" name="timeout.update" dataDxfId="64"/>
-    <tableColumn id="14" xr3:uid="{94A2E646-A69F-AD4B-9FAE-311A45CA539C}" name="timeout.delete" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{5287BCF5-E332-C245-B07F-ABA8F92E796A}" name="comments" dataDxfId="62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7AF97C6-A14E-1C47-A02F-8D732266692B}" name="Table323625" displayName="Table323625" ref="A1:L5" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="A1:L5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="12">
+    <tableColumn id="7" xr3:uid="{CC4A076D-8510-C346-A519-E9998988691B}" name="*file" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{129E7379-EC43-3240-AF33-7BB1051F9AE2}" name="*resource" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{6175AEB2-CFD9-0C41-BEF2-F8425019D0E8}" name="name" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{BA3EE563-779B-7D44-8B55-BF76B228BD54}" name="*instance_group" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{CDBC9F60-B4E8-C343-A936-88F836377605}" name="enable_manager" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{3A72C856-54D2-BD4D-B801-177653640A3E}" name="manager_type" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{E6CAEBE6-1BB2-C04A-B73C-00BEA6380C35}" name="aggregation_window" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{A8613953-A85C-D34F-9849-29B33A1B4A7E}" name="cooldown" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{0AE31508-8344-C040-B61B-AF3A27CEF8B9}" name="*max_membership_count" dataDxfId="44"/>
+    <tableColumn id="16" xr3:uid="{FA71788E-807B-594D-9D5F-475BCE818732}" name="min_membership_count" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{01C9F6CE-5E1E-A145-AAA3-E23E2ECDD13E}" name="module" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{F60D031F-4D80-8743-A4F8-A2F2A7F8FD73}" name="comments" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7AF97C6-A14E-1C47-A02F-8D732266692B}" name="Table323625" displayName="Table323625" ref="A1:K5" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A1:K5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="11">
-    <tableColumn id="7" xr3:uid="{CC4A076D-8510-C346-A519-E9998988691B}" name="*file" dataDxfId="59"/>
-    <tableColumn id="1" xr3:uid="{129E7379-EC43-3240-AF33-7BB1051F9AE2}" name="*resource" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{6175AEB2-CFD9-0C41-BEF2-F8425019D0E8}" name="name" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{BA3EE563-779B-7D44-8B55-BF76B228BD54}" name="*instance_group" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{CDBC9F60-B4E8-C343-A936-88F836377605}" name="enable_manager" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{3A72C856-54D2-BD4D-B801-177653640A3E}" name="manager_type" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{E6CAEBE6-1BB2-C04A-B73C-00BEA6380C35}" name="aggregation_window" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{A8613953-A85C-D34F-9849-29B33A1B4A7E}" name="cooldown" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{0AE31508-8344-C040-B61B-AF3A27CEF8B9}" name="*max_membership_count" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{FA71788E-807B-594D-9D5F-475BCE818732}" name="min_membership_count" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{F60D031F-4D80-8743-A4F8-A2F2A7F8FD73}" name="comments" dataDxfId="49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3679B91E-3E6B-D74C-9F59-10BEA77942D0}" name="Table3236259" displayName="Table3236259" ref="A1:J5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:J5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="10">
+    <tableColumn id="7" xr3:uid="{E7B033C2-A05E-FE4B-B3F6-3913E1AB2516}" name="*file" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{EF6C6ACD-CB59-0F48-9A3D-D8EE9B75D5E3}" name="*resource" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{4BEFD650-A55A-E845-9BA1-AAC6D6F7CAF4}" name="name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{E5DB040D-79DA-AB4C-8CAF-C52CA36A8BF9}" name="*policy_type" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{36613E53-630D-F44C-AF14-2D5F187CFF22}" name="*instance_group" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{6D61B31F-03F2-F043-8CC2-7372D2BEA62F}" name="*instance_group_manager" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{227B6C79-8819-D848-8BF0-A32F2848FF09}" name="metrc_type" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{34172AFD-EB25-374F-8A0A-588EB1A259D1}" name="metric_value" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{B286FC9F-33CC-D941-8F35-89C39511A254}" name="module" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{308C7FC8-A34C-8E41-83F1-AAE4E6FF0D42}" name="comments" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3679B91E-3E6B-D74C-9F59-10BEA77942D0}" name="Table3236259" displayName="Table3236259" ref="A1:I5" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A1:I5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="9">
-    <tableColumn id="7" xr3:uid="{E7B033C2-A05E-FE4B-B3F6-3913E1AB2516}" name="*file" dataDxfId="46"/>
-    <tableColumn id="1" xr3:uid="{EF6C6ACD-CB59-0F48-9A3D-D8EE9B75D5E3}" name="*resource" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{4BEFD650-A55A-E845-9BA1-AAC6D6F7CAF4}" name="name" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{E5DB040D-79DA-AB4C-8CAF-C52CA36A8BF9}" name="*policy_type" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{36613E53-630D-F44C-AF14-2D5F187CFF22}" name="*instance_group" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{6D61B31F-03F2-F043-8CC2-7372D2BEA62F}" name="*instance_group_manager" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{227B6C79-8819-D848-8BF0-A32F2848FF09}" name="metrc_type" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{34172AFD-EB25-374F-8A0A-588EB1A259D1}" name="metric_value" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{308C7FC8-A34C-8E41-83F1-AAE4E6FF0D42}" name="comments" dataDxfId="38"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{69955682-0A9A-A74F-A370-7A10E52917FF}" name="Table714" displayName="Table714" ref="A1:AA5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{69955682-0A9A-A74F-A370-7A10E52917FF}" name="Table714" displayName="Table714" ref="A1:AA5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:AA5" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
   <tableColumns count="27">
-    <tableColumn id="11" xr3:uid="{13A2B92A-DB5F-894F-8559-A79CBC49DE0C}" name="*file" dataDxfId="35"/>
-    <tableColumn id="1" xr3:uid="{D863735B-2378-C141-A46F-BF47850AB7E3}" name="*resource" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{DC555CC0-DAFB-634E-ACCC-1E4FC7B694A0}" name="*name" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{1AF9DCC6-BEF3-2746-A55B-7F204CA70AA5}" name="*vpc" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{B69D6F53-F413-AD42-8563-4B9C4E68FA75}" name="*zone" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{286053A1-FA2F-FA46-A954-40BEC18B90A5}" name="*profile" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{C73489B6-AA47-BB43-BC95-6DA4F3A5528F}" name="*image" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{ED99714A-0C88-A548-A216-65B84A9D5BD0}" name="boot_volume.name" dataDxfId="28"/>
-    <tableColumn id="22" xr3:uid="{C25D273C-29B5-784F-8B84-1D993755D9C0}" name="boot_volume.encryption" dataDxfId="27"/>
-    <tableColumn id="27" xr3:uid="{B7EFA335-3935-0145-92AF-1E5048E3B417}" name="boot_volumn.size" dataDxfId="26"/>
-    <tableColumn id="28" xr3:uid="{C7973D7D-28E8-1740-AE8C-D463E6AC1E8E}" name="boot_volume.profile" dataDxfId="25"/>
-    <tableColumn id="29" xr3:uid="{61193F78-566F-B140-90C3-6EED01F8A14A}" name="boot_volume.delete_volume_on_instance_delete" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{E820A563-CD60-174E-A225-4723E25801A7}" name="*keys" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{5E30E018-B876-6341-935E-FEB1590854AA}" name="primary_network_interface.name" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{82696C33-7DB4-BF44-A9B7-C6E74F0556D1}" name="*primary_network_interface.subnet" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{10482568-521E-574B-BFEB-68BD5358CBC5}" name="primary_network_interface.security_groups" dataDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{0C96486B-F1FD-3948-91BA-D04F8D757C89}" name="primary_network_interface.primary_ipv4_address" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{57FA4895-3501-B44F-BA3A-DE1F90A07F85}" name="network_interfaces.name" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{C34CED05-B419-384C-8837-99C8B247D9E9}" name="network_interfaces.subnet" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{6493B641-4742-474E-AD63-67AD88554E74}" name="network_interfaces.security_groups" dataDxfId="16"/>
-    <tableColumn id="26" xr3:uid="{1A6E9712-B0B2-6548-91CA-EAEC9868AE9F}" name="network_interfaces.primary_ipv4_address" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{0E098128-1CA2-8543-A220-5E27954A3CB2}" name="volume_attachments.name" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{F312D78E-014E-794E-AADD-652AAD932373}" name="volume_attachments.volume" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{3F5B5711-D6B7-E44A-BB00-6D6283E6BDD6}" name="volume_attachments.delete_volume_on_instance_delete" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{5554D5F7-923C-A847-8FE0-182681FFB6E8}" name="user_data" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{1153CB95-C604-5D4E-9907-4407C90FBAAD}" name="resource_group" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{1C184C7E-D021-5C4B-A337-E224FC0501AF}" name="comments" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{13A2B92A-DB5F-894F-8559-A79CBC49DE0C}" name="*file" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{D863735B-2378-C141-A46F-BF47850AB7E3}" name="*resource" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{DC555CC0-DAFB-634E-ACCC-1E4FC7B694A0}" name="*name" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{1AF9DCC6-BEF3-2746-A55B-7F204CA70AA5}" name="*vpc" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B69D6F53-F413-AD42-8563-4B9C4E68FA75}" name="*zone" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{286053A1-FA2F-FA46-A954-40BEC18B90A5}" name="*profile" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{C73489B6-AA47-BB43-BC95-6DA4F3A5528F}" name="*image" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{ED99714A-0C88-A548-A216-65B84A9D5BD0}" name="boot_volume.name" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{C25D273C-29B5-784F-8B84-1D993755D9C0}" name="boot_volume.encryption" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{B7EFA335-3935-0145-92AF-1E5048E3B417}" name="boot_volumn.size" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{C7973D7D-28E8-1740-AE8C-D463E6AC1E8E}" name="boot_volume.profile" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{61193F78-566F-B140-90C3-6EED01F8A14A}" name="boot_volume.delete_volume_on_instance_delete" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E820A563-CD60-174E-A225-4723E25801A7}" name="*keys" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{5E30E018-B876-6341-935E-FEB1590854AA}" name="primary_network_interface.name" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{82696C33-7DB4-BF44-A9B7-C6E74F0556D1}" name="*primary_network_interface.subnet" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{10482568-521E-574B-BFEB-68BD5358CBC5}" name="primary_network_interface.security_groups" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{0C96486B-F1FD-3948-91BA-D04F8D757C89}" name="primary_network_interface.primary_ipv4_address" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{57FA4895-3501-B44F-BA3A-DE1F90A07F85}" name="network_interfaces.name" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{C34CED05-B419-384C-8837-99C8B247D9E9}" name="network_interfaces.subnet" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{6493B641-4742-474E-AD63-67AD88554E74}" name="network_interfaces.security_groups" dataDxfId="7"/>
+    <tableColumn id="26" xr3:uid="{1A6E9712-B0B2-6548-91CA-EAEC9868AE9F}" name="network_interfaces.primary_ipv4_address" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{0E098128-1CA2-8543-A220-5E27954A3CB2}" name="volume_attachments.name" dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{F312D78E-014E-794E-AADD-652AAD932373}" name="volume_attachments.volume" dataDxfId="4"/>
+    <tableColumn id="31" xr3:uid="{3F5B5711-D6B7-E44A-BB00-6D6283E6BDD6}" name="volume_attachments.delete_volume_on_instance_delete" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{5554D5F7-923C-A847-8FE0-182681FFB6E8}" name="user_data" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{1153CB95-C604-5D4E-9907-4407C90FBAAD}" name="resource_group" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{1C184C7E-D021-5C4B-A337-E224FC0501AF}" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1526,41 +1501,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A31708-3A2C-4ADA-B3E5-8A1B18923F2A}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -1581,31 +1559,31 @@
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>4</v>
@@ -1620,30 +1598,33 @@
         <v>7</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1655,30 +1636,30 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1687,21 +1668,24 @@
         <v>27</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -1713,30 +1697,30 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1745,10 +1729,13 @@
         <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1773,19 +1760,20 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -1797,30 +1785,30 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1829,21 +1817,24 @@
         <v>27</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1855,30 +1846,30 @@
         <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1887,10 +1878,13 @@
         <v>26</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1915,19 +1909,20 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -1939,20 +1934,20 @@
         <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1960,28 +1955,31 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -1993,20 +1991,20 @@
         <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2014,17 +2012,20 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2049,8 +2050,9 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2075,6 +2077,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2087,9 +2090,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8FB4E8-B9B5-D24A-91D9-6FACBB875664}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2105,13 +2110,13 @@
     <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>
@@ -2144,16 +2149,19 @@
         <v>7</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2168,8 +2176,9 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2184,8 +2193,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2200,8 +2210,9 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2216,8 +2227,9 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2239,7 +2251,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7359C2B5-7D36-5048-B20A-75ECED0C559D}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2251,12 +2263,13 @@
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>
@@ -2277,10 +2290,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2289,8 +2305,9 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2299,8 +2316,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2309,8 +2327,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2319,6 +2338,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2329,97 +2349,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B53E7-89C3-584D-A155-A78CE0F218CA}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442D08D1-AC65-5248-AF59-BF17BFE162B4}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442D08D1-AC65-5248-AF59-BF17BFE162B4}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2428,15 +2363,16 @@
     <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>
@@ -2454,21 +2390,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -2477,11 +2416,11 @@
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2489,12 +2428,15 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -2503,11 +2445,11 @@
         <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2515,11 +2457,14 @@
         <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2530,10 +2475,11 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -2542,22 +2488,25 @@
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -2566,20 +2515,23 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2590,8 +2542,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2602,6 +2555,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2611,11 +2565,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA289C06-42FF-5747-8F03-000A7FDC187C}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2632,12 +2586,13 @@
     <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>
@@ -2646,40 +2601,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2694,8 +2652,9 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2710,8 +2669,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2726,8 +2686,9 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2742,6 +2703,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2751,9 +2713,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B5725F-B701-DA44-8691-89D09D258E14}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2769,48 +2731,51 @@
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2822,8 +2787,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2835,8 +2801,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2848,8 +2815,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2861,6 +2829,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2870,13 +2839,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1834CC26-8FEE-9646-8A84-B411A1B2C17B}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2888,44 +2855,46 @@
     <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2935,8 +2904,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2946,8 +2916,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2957,8 +2928,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2968,6 +2940,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2977,7 +2950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C54B3-94F3-1C43-B895-8215A077E8FB}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -3015,7 +2988,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -3036,55 +3009,55 @@
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>6</v>
@@ -3093,7 +3066,7 @@
         <v>5</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
